--- a/MicroCode/Electrical Pinout.xlsx
+++ b/MicroCode/Electrical Pinout.xlsx
@@ -24,12 +24,6 @@
     <t>Pin Function</t>
   </si>
   <si>
-    <t>19  V Positive</t>
-  </si>
-  <si>
-    <t>19 V Ground</t>
-  </si>
-  <si>
     <t>N.C.</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>Limit Switch 1 Negative (Rear)</t>
   </si>
   <si>
-    <t>Limit Switch 2 Positive (Rear)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limit Switch 2 Negative (Rear) </t>
-  </si>
-  <si>
     <t>Servo Signal</t>
   </si>
   <si>
@@ -94,6 +82,18 @@
   </si>
   <si>
     <t xml:space="preserve">Servo Ground </t>
+  </si>
+  <si>
+    <t>19V Ground</t>
+  </si>
+  <si>
+    <t>19 V Positive</t>
+  </si>
+  <si>
+    <t>Limit Switch 2 Positive (Front)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit Switch 2 Negative (Front) </t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -636,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -652,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -660,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -684,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -692,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -700,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -716,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -724,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -740,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -748,7 +748,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -756,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -764,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1">
@@ -780,7 +780,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
